--- a/we-web-parent/web-linyun-airline/src/test/resources/code-generator/module.xlsx
+++ b/we-web-parent/web-linyun-airline/src/test/resources/code-generator/module.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>模块code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,31 +50,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>反馈模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>feedback</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FeedbackEntity</t>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDepartmentEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAreaEntity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,7 +170,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -220,7 +244,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -255,7 +278,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -431,14 +453,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="26.375" customWidth="1"/>
@@ -449,7 +471,7 @@
     <col min="7" max="8" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -472,7 +494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -483,16 +505,39 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -515,12 +560,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -528,12 +573,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/we-web-parent/web-linyun-airline/src/test/resources/code-generator/module.xlsx
+++ b/we-web-parent/web-linyun-airline/src/test/resources/code-generator/module.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>模块code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,27 +54,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>反馈模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>feedback</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FeedbackEntity</t>
+    <t>客户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCustomerInfoEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLineEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线路类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linetype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLineTypeEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TInvoiceEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户线路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCustomerLineEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerinvoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCustomerInvoiceEntity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,7 +226,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -220,7 +300,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -255,7 +334,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -431,14 +509,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="26.375" customWidth="1"/>
@@ -449,7 +527,7 @@
     <col min="7" max="8" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -472,18 +550,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -493,6 +571,121 @@
       </c>
       <c r="G2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -515,12 +708,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -528,12 +721,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/we-web-parent/web-linyun-airline/src/test/resources/code-generator/module.xlsx
+++ b/we-web-parent/web-linyun-airline/src/test/resources/code-generator/module.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -54,27 +54,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>反馈模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>feedback</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FeedbackEntity</t>
+    <t>员工职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userjob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TUserJobEntity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -220,7 +220,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -255,7 +254,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -431,14 +429,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="26.375" customWidth="1"/>
@@ -449,7 +447,7 @@
     <col min="7" max="8" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -472,18 +470,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -515,12 +513,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -528,12 +526,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/we-web-parent/web-linyun-airline/src/test/resources/code-generator/module.xlsx
+++ b/we-web-parent/web-linyun-airline/src/test/resources/code-generator/module.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12090" windowHeight="5790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -58,22 +58,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客户需求模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customneeds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCustomerneedsEntity</t>
+    <t>操作台（桌面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operationsArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMessageEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +125,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -145,7 +149,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -187,7 +191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,9 +223,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,6 +275,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,14 +468,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="26.375" customWidth="1"/>
@@ -446,7 +486,7 @@
     <col min="7" max="8" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -469,7 +509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -512,12 +552,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -525,12 +568,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/we-web-parent/web-linyun-airline/src/test/resources/code-generator/module.xlsx
+++ b/we-web-parent/web-linyun-airline/src/test/resources/code-generator/module.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12090" windowHeight="5790"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -58,23 +58,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>操作台（桌面）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operationsArea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TMessageEntity</t>
+    <t>航班号信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flightinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFlightInfoEntity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,9 +125,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -149,7 +146,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -191,7 +188,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,27 +220,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,24 +254,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -468,14 +429,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="26.375" customWidth="1"/>
@@ -486,7 +447,7 @@
     <col min="7" max="8" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -509,7 +470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -552,15 +513,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -568,15 +526,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/we-web-parent/web-linyun-airline/src/test/resources/code-generator/module.xlsx
+++ b/we-web-parent/web-linyun-airline/src/test/resources/code-generator/module.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12090" windowHeight="5790"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -58,23 +58,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>操作台（桌面）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operationsArea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TMessageEntity</t>
+    <t>user模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drawback</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,9 +125,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -149,7 +146,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -191,7 +188,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,27 +220,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,24 +254,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -468,14 +429,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="26.375" customWidth="1"/>
@@ -486,7 +447,7 @@
     <col min="7" max="8" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -509,7 +470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -517,7 +478,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -529,7 +490,7 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -552,15 +513,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -568,15 +526,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/we-web-parent/web-linyun-airline/src/test/resources/code-generator/module.xlsx
+++ b/we-web-parent/web-linyun-airline/src/test/resources/code-generator/module.xlsx
@@ -62,11 +62,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UserEntity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drawback</t>
+    <t>mailroportmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TGrabMailReportMapEntity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,7 +433,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -444,7 +444,8 @@
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="8" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="27.75" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -478,7 +479,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -490,7 +491,7 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/we-web-parent/web-linyun-airline/src/test/resources/code-generator/module.xlsx
+++ b/we-web-parent/web-linyun-airline/src/test/resources/code-generator/module.xlsx
@@ -62,11 +62,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mailroportmap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGrabMailReportMapEntity</t>
+    <t>TDepartureCityEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>departurecity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,7 +433,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -479,7 +479,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -491,7 +491,7 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/we-web-parent/web-linyun-airline/src/test/resources/code-generator/module.xlsx
+++ b/we-web-parent/web-linyun-airline/src/test/resources/code-generator/module.xlsx
@@ -62,11 +62,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TDepartureCityEntity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>departurecity</t>
+    <t>UserEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drawback</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,8 +444,7 @@
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="7" width="27.75" customWidth="1"/>
-    <col min="8" max="8" width="18.125" customWidth="1"/>
+    <col min="7" max="8" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/we-web-parent/web-linyun-airline/src/test/resources/code-generator/module.xlsx
+++ b/we-web-parent/web-linyun-airline/src/test/resources/code-generator/module.xlsx
@@ -62,11 +62,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UserEntity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drawback</t>
+    <t>invoicemanage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TInvoiceDetailEntity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,7 +433,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -478,7 +478,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -490,7 +490,7 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
